--- a/Desktop/Borang baru Edited/Digestion/Titan/Borang peluluhan.xlsx
+++ b/Desktop/Borang baru Edited/Digestion/Titan/Borang peluluhan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20397"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48050A3-DD2C-4F63-8DB3-16A3725A1830}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="7" r:id="rId1"/>
@@ -27,12 +26,12 @@
     <sheet name="SAMPEL 11" sheetId="23" r:id="rId12"/>
     <sheet name="SAMPEL 12" sheetId="24" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -520,14 +519,11 @@
   <si>
     <t>Pilih Titan di sini &gt;&gt;</t>
   </si>
-  <si>
-    <t>IQC BLK POW</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="165" formatCode="###0.00;###0.00"/>
@@ -2653,10 +2649,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
-              <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019290" y="923328"/>
-              <a:chExt cx="2078189" cy="229184"/>
+              <a:off x="4531685" y="897178"/>
+              <a:ext cx="1840540" cy="346787"/>
+              <a:chOff x="5019289" y="923328"/>
+              <a:chExt cx="2078186" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2722,8 +2718,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019290" y="923328"/>
-                <a:ext cx="304605" cy="229184"/>
+                <a:off x="5019289" y="923328"/>
+                <a:ext cx="304606" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2769,7 +2765,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792678" y="927231"/>
+                <a:off x="6792674" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3038,7 +3034,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4109,7 +4105,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5232,7 +5228,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6355,7 +6351,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7093,10 +7089,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531683" y="897178"/>
-              <a:ext cx="1840542" cy="346787"/>
+              <a:off x="4531681" y="897178"/>
+              <a:ext cx="1840544" cy="346787"/>
               <a:chOff x="5019301" y="923328"/>
-              <a:chExt cx="2078184" cy="229184"/>
+              <a:chExt cx="2078187" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7209,7 +7205,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792684" y="927231"/>
+                <a:off x="6792687" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7478,7 +7474,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8601,7 +8597,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9724,7 +9720,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10847,7 +10843,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11970,7 +11966,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13093,7 +13089,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14216,7 +14212,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15339,7 +15335,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15790,23 +15786,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15842,23 +15821,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16034,12 +15996,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C07EA8-DCA8-4992-8647-B4560852CCA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16056,7 +16018,7 @@
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B1" s="55" t="s">
         <v>48</v>
       </c>
@@ -16081,16 +16043,19 @@
       <c r="I1" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>52</v>
       </c>
@@ -16112,30 +16077,25 @@
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="33">
-        <v>11</v>
-      </c>
-      <c r="E3" s="33">
-        <v>61</v>
-      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="58">
         <f t="shared" ref="F3:F17" si="0">E3-D3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="65" t="str">
@@ -16150,12 +16110,15 @@
       <c r="K3" s="66"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>54</v>
       </c>
@@ -16181,12 +16144,15 @@
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
       <c r="M4" s="52"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>55</v>
       </c>
@@ -16212,12 +16178,15 @@
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>56</v>
       </c>
@@ -16246,13 +16215,15 @@
       <c r="K6" s="52"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>57</v>
       </c>
@@ -16281,13 +16252,15 @@
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>58</v>
       </c>
@@ -16316,13 +16289,15 @@
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>59</v>
       </c>
@@ -16351,13 +16326,15 @@
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>60</v>
       </c>
@@ -16386,13 +16363,15 @@
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>61</v>
       </c>
@@ -16421,13 +16400,15 @@
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>62</v>
       </c>
@@ -16456,13 +16437,15 @@
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>63</v>
       </c>
@@ -16491,13 +16474,15 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>64</v>
       </c>
@@ -16526,13 +16511,15 @@
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>65</v>
       </c>
@@ -16561,13 +16548,15 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>66</v>
       </c>
@@ -16596,13 +16585,15 @@
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>67</v>
       </c>
@@ -16631,24 +16622,28 @@
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>76</v>
       </c>
@@ -16657,23 +16652,32 @@
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>69</v>
       </c>
@@ -16681,10 +16685,19 @@
       <c r="C21" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-    </row>
-    <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+    </row>
+    <row r="22" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -16695,10 +16708,19 @@
       <c r="F22" s="52"/>
       <c r="G22" s="53"/>
       <c r="H22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>45</v>
       </c>
@@ -16715,10 +16737,19 @@
       <c r="G23" s="53"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>46</v>
       </c>
@@ -16735,8 +16766,19 @@
       <c r="G24" s="53"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>47</v>
       </c>
@@ -16753,8 +16795,19 @@
       <c r="G25" s="53"/>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+    </row>
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
@@ -16762,8 +16815,19 @@
       <c r="G26" s="53"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>72</v>
       </c>
@@ -16775,8 +16839,19 @@
       <c r="G27" s="53"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="1:18" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+    </row>
+    <row r="28" spans="1:20" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="52" t="s">
         <v>74</v>
       </c>
@@ -16791,8 +16866,19 @@
       <c r="E28" s="54"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -16821,8 +16907,19 @@
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
@@ -16830,8 +16927,19 @@
       <c r="G30" s="53"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
@@ -16840,7 +16948,7 @@
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="63"/>
@@ -16887,218 +16995,218 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:E17 B2 D2:E2">
-    <cfRule type="expression" dxfId="45" priority="54">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>LEN(B2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="42" priority="51">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>LEN(B22)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="40" priority="45">
+    <cfRule type="expression" dxfId="40" priority="46">
       <formula>LEN(B19)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="39" priority="44">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>LEN(B20)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23 F23">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"TIDAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"ya"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24 F24">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>"TIDAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
       <formula>"ya"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25 F25">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"TIDAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>"ya"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I17">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal">
+    <cfRule type="cellIs" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H17">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>LEN(H6)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H17">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>LEN(H2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>LEN(H3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H11">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17108,20 +17216,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 H4:H5" xr:uid="{04F0A5AE-0448-4A04-9F76-CFBB4A024510}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 H4:H5">
       <formula1>"Sila Pilih, T1, T2, T3, T4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 I6:I17" xr:uid="{263620C9-1EE6-4ACD-8AD4-6A652221EEEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 I6:I17">
       <formula1>"Sila Pilih, 1, 2, 3, 4, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{46D1D5E6-C29D-449B-892B-C832B6F0FBF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
       <formula1>"Sila Pilih, XP 205DR, MSA 225S-100-DA, PG 603S, MSE 225S-100-DU , Lain-lain"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B25 F23:F25" xr:uid="{CB7666A4-4141-46ED-955D-EEB485C41400}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B25 F23:F25">
       <formula1>"Sila Pilih, YA, TIDAK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17" xr:uid="{414E0C26-9607-4E56-8402-5D2C30812F07}">
-      <formula1>"Sila Pilih, KAPSUL KERAS, SERBUK, CECAIR, PIL, KAPSUL LEMBUT, KRIM, PASTE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17">
+      <formula1>"Sila Pilih, KAPSUL KERAS, TABLET, SERBUK, CECAIR, PIL KERAS, KAPSUL LEMBUT, KRIM, PIL PASTE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17129,7 +17237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7123B26-B365-4158-AE25-F0803FB95B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -17249,11 +17357,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -17829,7 +17937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B4795A-C907-4430-880D-9102A0CF927F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -17949,11 +18057,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -18529,7 +18637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A82999-18B0-44F3-B3BA-398B7EEAD69E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -18649,11 +18757,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -19229,7 +19337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C001D56-A056-40C3-B7A4-BEBB4F61DA33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -19349,11 +19457,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -19929,10 +20037,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73951479-97B6-41DF-94A5-D7539A99CB3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -20049,11 +20157,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -20629,7 +20737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26F71D6-B8F0-48D6-89CB-94DC4EC25284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -20749,11 +20857,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -21329,7 +21437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC0F35A-3E39-4B16-9D45-8DC1DD3601A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -21449,11 +21557,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -22029,7 +22137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B512AFF-5AEB-45F6-9954-9F35FF174EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -22149,11 +22257,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -22729,7 +22837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E0055-D4AF-4DE7-BC0C-54200A66B142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -22849,11 +22957,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -23429,7 +23537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6618B289-4AE1-4A32-B83B-D65C49803225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -23549,11 +23657,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -24129,7 +24237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2392B26-BC57-4736-975A-3CD13FC42E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -24249,11 +24357,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>
@@ -24829,7 +24937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B061B5FB-A1A6-46B6-9EFA-5EE6CCF89F09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -24949,11 +25057,11 @@
       <c r="E7" s="99"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="100">
         <f>FormTitan!F3</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="101"/>
     </row>

--- a/Desktop/Borang baru Edited/Digestion/Titan/Borang peluluhan.xlsx
+++ b/Desktop/Borang baru Edited/Digestion/Titan/Borang peluluhan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20397"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97641ABC-538B-48AA-80CF-D3E7EC7AA061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="7" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="SAMPEL 11" sheetId="23" r:id="rId12"/>
     <sheet name="SAMPEL 12" sheetId="24" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -523,7 +524,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="165" formatCode="###0.00;###0.00"/>
@@ -1342,6 +1343,219 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,219 +1603,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2649,10 +2650,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531685" y="897178"/>
-              <a:ext cx="1840540" cy="346787"/>
-              <a:chOff x="5019289" y="923328"/>
-              <a:chExt cx="2078186" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019287" y="923328"/>
+              <a:chExt cx="2078188" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2718,7 +2719,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019289" y="923328"/>
+                <a:off x="5019287" y="923328"/>
                 <a:ext cx="304606" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3034,7 +3035,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3295,7 +3296,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1057274" cy="311496"/>
+    <xdr:ext cx="1057274" cy="264560"/>
     <xdr:sp macro="" textlink="FormTitan!F6">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17">
@@ -3310,7 +3311,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5143501" y="7800975"/>
-          <a:ext cx="1057274" cy="311496"/>
+          <a:ext cx="1057274" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3338,7 +3339,7 @@
         <a:lstStyle/>
         <a:p>
           <a:fld id="{A94A5F2D-526B-4165-B196-5955E5FDFD28}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3348,7 +3349,7 @@
             <a:pPr/>
             <a:t>0.000</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1400"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3720,10 +3721,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -3789,7 +3790,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -3836,7 +3837,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4105,7 +4106,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4843,10 +4844,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -4912,7 +4913,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4959,7 +4960,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -5228,7 +5229,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5966,10 +5967,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -6035,7 +6036,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6082,7 +6083,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -6351,7 +6352,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7089,9 +7090,9 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531681" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019301" y="923328"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019302" y="923328"/>
               <a:chExt cx="2078187" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
@@ -7158,7 +7159,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019301" y="923328"/>
+                <a:off x="5019302" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7205,7 +7206,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792687" y="927231"/>
+                <a:off x="6792688" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7474,7 +7475,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8212,10 +8213,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -8281,7 +8282,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8328,7 +8329,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8597,7 +8598,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9335,10 +9336,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -9404,7 +9405,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9451,7 +9452,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -9720,7 +9721,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10458,10 +10459,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -10527,7 +10528,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10574,7 +10575,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -10843,7 +10844,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11098,8 +11099,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1057274" cy="311496"/>
-    <xdr:sp macro="" textlink="FormTitan!F6">
+    <xdr:ext cx="1057274" cy="256737"/>
+    <xdr:sp macro="" textlink="FormTitan!F10">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
@@ -11113,7 +11114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5143501" y="7800975"/>
-          <a:ext cx="1057274" cy="311496"/>
+          <a:ext cx="1057274" cy="256737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11140,18 +11141,17 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{A94A5F2D-526B-4165-B196-5955E5FDFD28}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{B5C3FDF9-F6BD-4BB2-90BF-D49E99E5017E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
-            <a:pPr/>
             <a:t>0.000</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1400"/>
+          <a:endParaRPr lang="en-MY" sz="1050"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11581,10 +11581,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -11650,7 +11650,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11697,7 +11697,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -11966,7 +11966,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12704,10 +12704,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -12773,7 +12773,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12820,7 +12820,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -13089,7 +13089,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -13827,10 +13827,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -13896,7 +13896,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -13943,7 +13943,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -14212,7 +14212,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -14950,10 +14950,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531684" y="897178"/>
-              <a:ext cx="1840544" cy="346787"/>
-              <a:chOff x="5019288" y="923328"/>
-              <a:chExt cx="2078192" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019291" y="923328"/>
+              <a:chExt cx="2078191" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -15019,7 +15019,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019288" y="923328"/>
+                <a:off x="5019291" y="923328"/>
                 <a:ext cx="304608" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15066,7 +15066,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792679" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -15335,7 +15335,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15786,6 +15786,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15821,6 +15838,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15996,12 +16030,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17216,19 +17250,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 H4:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 H4:H5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Sila Pilih, T1, T2, T3, T4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 I6:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 I6:I17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sila Pilih, 1, 2, 3, 4, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Sila Pilih, XP 205DR, MSA 225S-100-DA, PG 603S, MSE 225S-100-DU , Lain-lain"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B25 F23:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B25 F23:F25" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Sila Pilih, YA, TIDAK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Sila Pilih, KAPSUL KERAS, TABLET, SERBUK, CECAIR, PIL KERAS, KAPSUL LEMBUT, KRIM, PIL PASTE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17237,10 +17271,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -17256,46 +17290,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G14</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -17308,11 +17342,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -17321,196 +17355,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -17519,16 +17553,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -17538,70 +17572,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -17643,114 +17677,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -17758,12 +17757,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17937,10 +17971,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -17956,46 +17990,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G15</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -18008,11 +18042,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -18021,196 +18055,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -18219,16 +18253,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -18238,70 +18272,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -18343,114 +18377,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -18458,12 +18457,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18637,11 +18671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18656,46 +18690,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G16</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -18708,11 +18742,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -18721,196 +18755,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -18919,16 +18953,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -18938,70 +18972,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -19043,114 +19077,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -19158,12 +19157,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19337,7 +19371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -19356,46 +19390,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B17</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G17</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -19408,11 +19442,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -19421,196 +19455,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -19619,16 +19653,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="44" t="s">
         <v>74</v>
       </c>
@@ -19638,70 +19672,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="43"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="43"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="43"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="43"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="45"/>
       <c r="H22" s="18"/>
     </row>
@@ -19743,79 +19777,114 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -19823,47 +19892,12 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20037,10 +20071,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -20056,46 +20090,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B6</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G6</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -20108,11 +20142,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -20121,196 +20155,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -20319,16 +20353,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -20338,70 +20372,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -20443,114 +20477,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -20558,12 +20557,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20737,10 +20771,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -20756,46 +20790,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G7</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -20808,11 +20842,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -20821,196 +20855,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -21019,16 +21053,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -21038,70 +21072,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -21143,114 +21177,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21258,12 +21257,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21437,10 +21471,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -21456,46 +21490,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G8</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -21508,11 +21542,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -21521,196 +21555,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -21719,16 +21753,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -21738,70 +21772,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -21843,114 +21877,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -21958,12 +21957,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22137,10 +22171,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -22156,46 +22190,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G9</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -22208,11 +22242,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -22221,196 +22255,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -22419,16 +22453,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -22438,70 +22472,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -22543,114 +22577,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -22658,12 +22657,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22837,11 +22871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22856,46 +22890,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G10</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -22908,11 +22942,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -22921,196 +22955,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -23119,16 +23153,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -23138,70 +23172,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -23243,114 +23277,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -23358,12 +23357,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23537,10 +23571,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -23556,46 +23590,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B11</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G11</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -23608,11 +23642,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -23621,196 +23655,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -23819,16 +23853,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -23838,70 +23872,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -23943,114 +23977,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -24058,12 +24057,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24237,10 +24271,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -24256,46 +24290,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B12</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G12</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -24308,11 +24342,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -24321,196 +24355,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -24519,16 +24553,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -24538,70 +24572,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -24643,114 +24677,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -24758,12 +24757,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24937,10 +24971,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
@@ -24956,46 +24990,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79">
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150">
         <f>FormTitan!B13</f>
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="str">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="str">
         <f>FormTitan!G13</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -25008,11 +25042,11 @@
         <f>FormTitan!B2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -25021,196 +25055,196 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="87">
+      <c r="E5" s="136">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="19">
         <f>FormTitan!C3</f>
         <v>0</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="131">
         <f>FormTitan!F3</f>
         <v>0</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="102">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="19">
         <f>FormTitan!C4</f>
         <v>0</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="131">
         <f>FormTitan!F4</f>
         <v>0</v>
       </c>
-      <c r="H8" s="101"/>
+      <c r="H8" s="132"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
       <c r="F9" s="19">
         <f>FormTitan!C5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="131">
         <f>FormTitan!F5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="132"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="93" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="94"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="123">
         <v>2.5</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="5" t="e">
         <f>B12/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="118" t="e">
+      <c r="G12" s="106" t="e">
         <f>B12/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="103">
         <v>0.25</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="5" t="e">
         <f>B13/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="118" t="e">
+      <c r="G13" s="106" t="e">
         <f>B13/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="108">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="5" t="e">
         <f>B14/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="118" t="e">
+      <c r="G14" s="106" t="e">
         <f>B14/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="119"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="103">
         <v>0.15</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="5" t="e">
         <f>B15/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="118" t="e">
+      <c r="G15" s="106" t="e">
         <f>B15/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -25219,16 +25253,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="28" t="s">
         <v>74</v>
       </c>
@@ -25238,70 +25272,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="132"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="26"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="26"/>
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="132"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="26"/>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="26"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="27"/>
       <c r="H22" s="18"/>
     </row>
@@ -25343,114 +25377,79 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="143"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="91"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152">
+      <c r="A29" s="77">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79">
         <f>FormTitan!B20</f>
         <v>0</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="157"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:E6"/>
@@ -25458,12 +25457,47 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
